--- a/reports/Зельднер Л.Г.xlsx
+++ b/reports/Зельднер Л.Г.xlsx
@@ -142,7 +142,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -176,26 +176,6 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -226,31 +206,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -276,33 +236,20 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -587,7 +534,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -597,22 +544,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="17" t="s">
+      <c r="E1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
     </row>
@@ -633,7 +580,7 @@
       </c>
       <c r="F2" s="9">
         <f>SUM(E2:E18)</f>
-        <v>20</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -644,9 +591,11 @@
       <c r="C3" s="7">
         <v>6</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="10"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="7">
+        <v>6</v>
+      </c>
+      <c r="F3" s="13"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -656,11 +605,11 @@
       <c r="C4" s="8">
         <v>6</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="11">
-        <v>4</v>
-      </c>
-      <c r="F4" s="10"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="8">
+        <v>6</v>
+      </c>
+      <c r="F4" s="13"/>
     </row>
     <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
@@ -670,11 +619,11 @@
       <c r="C5" s="8">
         <v>6</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="11">
-        <v>2</v>
-      </c>
-      <c r="F5" s="10"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="8">
+        <v>6</v>
+      </c>
+      <c r="F5" s="13"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -684,9 +633,11 @@
       <c r="C6" s="8">
         <v>2</v>
       </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="10"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="8">
+        <v>2</v>
+      </c>
+      <c r="F6" s="13"/>
     </row>
     <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
@@ -696,9 +647,11 @@
       <c r="C7" s="7">
         <v>4</v>
       </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="10"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="7">
+        <v>4</v>
+      </c>
+      <c r="F7" s="13"/>
     </row>
     <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
@@ -708,9 +661,11 @@
       <c r="C8" s="8">
         <v>4</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="10"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="8">
+        <v>4</v>
+      </c>
+      <c r="F8" s="13"/>
     </row>
     <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
@@ -720,11 +675,11 @@
       <c r="C9" s="8">
         <v>6</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="11">
-        <v>4</v>
-      </c>
-      <c r="F9" s="10"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="8">
+        <v>6</v>
+      </c>
+      <c r="F9" s="13"/>
     </row>
     <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
@@ -734,11 +689,11 @@
       <c r="C10" s="7">
         <v>4</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="11">
-        <v>4</v>
-      </c>
-      <c r="F10" s="10"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="7">
+        <v>4</v>
+      </c>
+      <c r="F10" s="13"/>
     </row>
     <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
@@ -748,9 +703,11 @@
       <c r="C11" s="7">
         <v>6</v>
       </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="10"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="7">
+        <v>6</v>
+      </c>
+      <c r="F11" s="13"/>
     </row>
     <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
@@ -760,9 +717,11 @@
       <c r="C12" s="8">
         <v>4</v>
       </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="10"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="8">
+        <v>4</v>
+      </c>
+      <c r="F12" s="13"/>
     </row>
     <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
@@ -772,9 +731,11 @@
       <c r="C13" s="8">
         <v>6</v>
       </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="10"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="8">
+        <v>6</v>
+      </c>
+      <c r="F13" s="13"/>
     </row>
     <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
@@ -784,9 +745,11 @@
       <c r="C14" s="8">
         <v>4</v>
       </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="10"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="8">
+        <v>4</v>
+      </c>
+      <c r="F14" s="13"/>
     </row>
     <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
@@ -796,9 +759,11 @@
       <c r="C15" s="8">
         <v>2</v>
       </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="10"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="8">
+        <v>2</v>
+      </c>
+      <c r="F15" s="13"/>
     </row>
     <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
@@ -808,11 +773,11 @@
       <c r="C16" s="8">
         <v>6</v>
       </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="15">
-        <v>2</v>
-      </c>
-      <c r="F16" s="10"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="8">
+        <v>6</v>
+      </c>
+      <c r="F16" s="13"/>
     </row>
     <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
@@ -822,9 +787,11 @@
       <c r="C17" s="7">
         <v>2</v>
       </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="10"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="7">
+        <v>2</v>
+      </c>
+      <c r="F17" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="2">
